--- a/WANJIKU LASITI.xlsx
+++ b/WANJIKU LASITI.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ASSETFLOW-PC\Desktop\FLORENCE\CLIENTS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="180" windowWidth="18195" windowHeight="12480" tabRatio="998" firstSheet="4" activeTab="15"/>
   </bookViews>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="146">
   <si>
     <t>RENT STATEMENT</t>
   </si>
@@ -458,12 +463,21 @@
   </si>
   <si>
     <t xml:space="preserve">GEOFREY </t>
+  </si>
+  <si>
+    <t>SAMUEL TWASI WEROBA</t>
+  </si>
+  <si>
+    <t>PAID  ON 4/12</t>
+  </si>
+  <si>
+    <t>PAID ON 13/12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -695,7 +709,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -730,7 +744,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6409,8 +6423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6548,10 +6562,12 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6">
+        <v>2500</v>
+      </c>
       <c r="H9" s="6">
         <f t="shared" ref="H9:H21" si="1">F9-G9</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I9" s="6"/>
     </row>
@@ -6574,10 +6590,12 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="6">
+        <v>2500</v>
+      </c>
       <c r="H10" s="6">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I10" s="6"/>
     </row>
@@ -6600,10 +6618,12 @@
         <f>C11+D11+E11</f>
         <v>2800</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="6">
+        <v>2500</v>
+      </c>
       <c r="H11" s="6">
         <f t="shared" si="1"/>
-        <v>2800</v>
+        <v>300</v>
       </c>
       <c r="I11" s="6"/>
     </row>
@@ -6626,10 +6646,12 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="6">
+        <v>2300</v>
+      </c>
       <c r="H12" s="6">
         <f>F12-G12</f>
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="I12" s="6"/>
     </row>
@@ -6638,19 +6660,25 @@
         <v>7</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+        <v>143</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2300</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2300</v>
+      </c>
       <c r="E13" s="6">
         <f>'NOVEMBER 21'!H13</f>
         <v>0</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="6"/>
+        <v>4600</v>
+      </c>
+      <c r="G13" s="6">
+        <v>4600</v>
+      </c>
       <c r="H13" s="6">
         <f>F13-G13</f>
         <v>0</v>
@@ -6665,21 +6693,19 @@
         <v>117</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="6">
-        <v>4000</v>
-      </c>
+      <c r="D14" s="6"/>
       <c r="E14" s="6">
         <f>'NOVEMBER 21'!H14</f>
         <v>0</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6">
         <f>F14-G14</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I14" s="6"/>
     </row>
@@ -6702,10 +6728,12 @@
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="6">
+        <v>4000</v>
+      </c>
       <c r="H15" s="6">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="6"/>
     </row>
@@ -6717,16 +6745,20 @@
         <v>29</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6">
+        <v>4000</v>
+      </c>
       <c r="E16" s="6">
         <f>'NOVEMBER 21'!H16</f>
         <v>0</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="6"/>
+        <v>4000</v>
+      </c>
+      <c r="G16" s="6">
+        <v>4000</v>
+      </c>
       <c r="H16" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6778,10 +6810,12 @@
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="6">
+        <v>4050</v>
+      </c>
       <c r="H18" s="6">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>1950</v>
       </c>
       <c r="I18" s="6"/>
     </row>
@@ -6862,11 +6896,11 @@
       </c>
       <c r="C22" s="11">
         <f t="shared" ref="C22:H22" si="2">SUM(C7:C21)</f>
-        <v>2300</v>
+        <v>4600</v>
       </c>
       <c r="D22" s="7">
         <f>SUM(D7:D21)</f>
-        <v>32800</v>
+        <v>35100</v>
       </c>
       <c r="E22" s="6">
         <f>SUM(E7:E21)</f>
@@ -6874,15 +6908,15 @@
       </c>
       <c r="F22" s="6">
         <f t="shared" si="2"/>
-        <v>43200</v>
+        <v>47800</v>
       </c>
       <c r="G22" s="7">
         <f>SUM(G7:G21)</f>
-        <v>5300</v>
+        <v>31750</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="2"/>
-        <v>37900</v>
+        <v>16050</v>
       </c>
       <c r="I22" s="7">
         <f>SUM(I7:I21)</f>
@@ -6942,7 +6976,7 @@
       </c>
       <c r="C26">
         <f>D22</f>
-        <v>32800</v>
+        <v>35100</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="16"/>
@@ -6951,7 +6985,7 @@
       </c>
       <c r="G26" s="16">
         <f>G22+H23</f>
-        <v>5300</v>
+        <v>31750</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="10"/>
@@ -6980,7 +7014,10 @@
       <c r="B28" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="10">
+        <f>C22</f>
+        <v>4600</v>
+      </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -7011,7 +7048,7 @@
       </c>
       <c r="D30" s="10">
         <f>C30*C26</f>
-        <v>3280</v>
+        <v>3510</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10" t="s">
@@ -7022,7 +7059,7 @@
       </c>
       <c r="H30" s="10">
         <f>C30*C26</f>
-        <v>3280</v>
+        <v>3510</v>
       </c>
       <c r="I30" s="10"/>
     </row>
@@ -7041,34 +7078,54 @@
       <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="20"/>
+      <c r="B32" s="20" t="s">
+        <v>144</v>
+      </c>
       <c r="C32" s="17"/>
-      <c r="D32" s="10"/>
+      <c r="D32" s="10">
+        <v>10000</v>
+      </c>
       <c r="E32" s="10"/>
-      <c r="F32" s="20"/>
+      <c r="F32" s="20" t="s">
+        <v>144</v>
+      </c>
       <c r="G32" s="17"/>
-      <c r="H32" s="10"/>
+      <c r="H32" s="10">
+        <v>10000</v>
+      </c>
       <c r="I32" s="10"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="D33" s="6">
+        <v>20000</v>
+      </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="H33" s="6">
+        <v>20000</v>
+      </c>
       <c r="I33" s="10"/>
       <c r="J33" s="26"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="20"/>
+      <c r="B34" s="20" t="s">
+        <v>145</v>
+      </c>
       <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="D34" s="10">
+        <v>20102</v>
+      </c>
       <c r="E34" s="10"/>
-      <c r="F34" s="20"/>
+      <c r="F34" s="20" t="s">
+        <v>145</v>
+      </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
+      <c r="H34" s="10">
+        <v>20102</v>
+      </c>
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
@@ -7098,28 +7155,28 @@
       </c>
       <c r="C37" s="26">
         <f>C26+C27+C28-D30</f>
-        <v>38263</v>
+        <v>44933</v>
       </c>
       <c r="D37" s="22">
         <f>SUM(D32:D36)</f>
-        <v>0</v>
+        <v>50102</v>
       </c>
       <c r="E37" s="23">
         <f>C37-D37</f>
-        <v>38263</v>
+        <v>-5169</v>
       </c>
       <c r="F37" s="24"/>
       <c r="G37" s="23">
         <f>G26+G27-H30</f>
-        <v>2563</v>
+        <v>28783</v>
       </c>
       <c r="H37" s="23">
         <f>SUM(H32:H36)</f>
-        <v>0</v>
+        <v>50102</v>
       </c>
       <c r="I37" s="23">
         <f>G37-H37</f>
-        <v>2563</v>
+        <v>-21319</v>
       </c>
       <c r="J37" s="26"/>
     </row>
